--- a/GBP Bonds/Service Companies/Financials/London Merchant Securities - SemiAnnual.xlsx
+++ b/GBP Bonds/Service Companies/Financials/London Merchant Securities - SemiAnnual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Service Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A02BA2C-7110-4FC1-838C-0DF56A3AC4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F69434-324B-487E-81C9-B14B0BE31400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Summary" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Balance Sheet" sheetId="4" r:id="rId3"/>
     <sheet name="Income Statement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="350">
   <si>
     <t>Company Fundamentals - Financial Summary</t>
   </si>
@@ -1067,6 +1080,12 @@
   </si>
   <si>
     <t>London Merchant Securities Ltd</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Working Capital to Total Assets</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1311,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1624,8 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1709,43 +1728,43 @@
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1753,43 +1772,43 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>38990</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>38807</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>38625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>38442</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>38260</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <v>38077</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <v>37894</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="30">
         <v>37711</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="30">
         <v>37529</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="30">
         <v>37346</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <v>37164</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="30">
         <v>36981</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="30">
         <v>36799</v>
       </c>
     </row>
@@ -1797,43 +1816,43 @@
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3655,11 +3674,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="B12"/>
@@ -3676,18 +3702,11 @@
     <mergeCell ref="G13"/>
     <mergeCell ref="H12"/>
     <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -3802,40 +3821,40 @@
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3843,40 +3862,40 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>38990</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>38807</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>38625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>38442</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>38260</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <v>38077</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <v>37894</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="30">
         <v>37711</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="30">
         <v>37529</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="30">
         <v>37346</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <v>37164</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="30">
         <v>36799</v>
       </c>
     </row>
@@ -3884,40 +3903,40 @@
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6464,11 +6483,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11"/>
     <mergeCell ref="B12"/>
@@ -6485,16 +6509,11 @@
     <mergeCell ref="G13"/>
     <mergeCell ref="H12"/>
     <mergeCell ref="H13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -6506,9 +6525,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6610,43 +6631,43 @@
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6654,43 +6675,43 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>38990</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>38807</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>38625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>38442</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>38260</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <v>38077</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <v>37894</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="30">
         <v>37711</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="30">
         <v>37529</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="30">
         <v>37346</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <v>37164</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="30">
         <v>36981</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="30">
         <v>36799</v>
       </c>
     </row>
@@ -6698,43 +6719,43 @@
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10704,13 +10725,108 @@
         <v>676.86</v>
       </c>
     </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125">
+        <v>1.1656461488881726</v>
+      </c>
+      <c r="C125">
+        <v>1.919816272965879</v>
+      </c>
+      <c r="D125">
+        <v>1.1921251763498781</v>
+      </c>
+      <c r="E125">
+        <v>1.4110832811521603</v>
+      </c>
+      <c r="F125">
+        <v>1.3314176245210727</v>
+      </c>
+      <c r="G125">
+        <v>1.7366597366597365</v>
+      </c>
+      <c r="H125">
+        <v>2.6415758002110445</v>
+      </c>
+      <c r="I125">
+        <v>2.3409632808774443</v>
+      </c>
+      <c r="J125">
+        <v>2.6021465581051073</v>
+      </c>
+      <c r="K125">
+        <v>2.5807253886010364</v>
+      </c>
+      <c r="L125">
+        <v>4.4180392156862744</v>
+      </c>
+      <c r="M125">
+        <v>3.5934190620272313</v>
+      </c>
+      <c r="N125">
+        <v>2.2822491730981258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126">
+        <v>4.1319744074134544E-2</v>
+      </c>
+      <c r="C126">
+        <v>5.0890326430421629E-2</v>
+      </c>
+      <c r="D126">
+        <v>1.5421765703132796E-2</v>
+      </c>
+      <c r="E126">
+        <v>2.4650378599707954E-2</v>
+      </c>
+      <c r="F126">
+        <v>2.4507270982505349E-2</v>
+      </c>
+      <c r="G126">
+        <v>3.9148733423330424E-2</v>
+      </c>
+      <c r="H126">
+        <v>5.4777590901065806E-2</v>
+      </c>
+      <c r="I126">
+        <v>6.1873749783067394E-2</v>
+      </c>
+      <c r="J126">
+        <v>5.0610322592514238E-2</v>
+      </c>
+      <c r="K126">
+        <v>7.8131863206490071E-2</v>
+      </c>
+      <c r="L126">
+        <v>0.12682997799479875</v>
+      </c>
+      <c r="M126">
+        <v>0.1425980028779488</v>
+      </c>
+      <c r="N126">
+        <v>9.2674121245549815E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="B12"/>
@@ -10727,18 +10843,11 @@
     <mergeCell ref="G13"/>
     <mergeCell ref="H12"/>
     <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -10854,43 +10963,43 @@
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10898,43 +11007,43 @@
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
         <v>38990</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <v>38807</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>38625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>38442</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>38260</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <v>38077</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <v>37894</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="30">
         <v>37711</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="30">
         <v>37529</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="30">
         <v>37346</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <v>37164</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="30">
         <v>36981</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="30">
         <v>36799</v>
       </c>
     </row>
@@ -10942,43 +11051,43 @@
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -14620,11 +14729,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="B12"/>
@@ -14641,18 +14757,11 @@
     <mergeCell ref="G13"/>
     <mergeCell ref="H12"/>
     <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="M12"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="N12"/>
-    <mergeCell ref="N13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
